--- a/doc/PlusDojo6月作成ドキュメントテンプレート/03_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/PlusDojo6月作成ドキュメントテンプレート/03_ファイル構成一覧表_チーム名.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NextCloud\内部共有用\04_取引案件別\19_SEプラス\2024_Dojo\6月\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\PlusDojo6月作成ドキュメントテンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE3A67F-EAA6-4199-8272-F4FAB37202CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DED4FB7-D1EC-48FC-864D-ADF2626260C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10520" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="288" yWindow="252" windowWidth="15564" windowHeight="11988" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -148,16 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>待ち状態</t>
-    <rPh sb="0" eb="1">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>未テスト</t>
     <rPh sb="0" eb="1">
       <t>ミ</t>
@@ -165,10 +155,323 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了</t>
+    <t>java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AccountRegistServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PwRegistServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ManuelServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ManuelRegistServlrt.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ManuelUpdateServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskServlrt.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskRegistServlrt.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskUpdateServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AccountServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GroupServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GroupCreateServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GroupUpdateServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン処理　成功時はリダイレクト、失敗時はgetと同じ画面を表示する</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されたメールにメールが送信される。成功時はリダイレクト、失敗時はgetと同じ画面を表示</t>
     <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PW登録処理　成功時はリダイレクト、失敗時はgetと同じ画面を表示</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ManuelSerblet内での検索処理</t>
+    <rPh sb="13" eb="14">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーチェックを行い、問題なければデータ登録を行う。データ登録後は一覧表示にフォワードする。</t>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーチェックを行い問題がなければデータの更新を行う。データ登録後は一覧表示にフォワードする</t>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーチェックを行い問題がなければ登録を行う。データ更新後はホーム画面にフォワード。</t>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期表示されるグループを変更する。</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーチェックを行い問題がなければ登録を行う。データ更新後はグループ一覧画面にフォワード。</t>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーチェックを行い問題がなければ登録を行う。データ更新後はグループ詳細画面にフォワードする。エラーチェックを行い問題がなければ招待し、登録を行う。データ更新後はグループ詳細画面にフォワードする。</t>
+    <rPh sb="34" eb="36">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AccountsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GroupsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TasksDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SchedulesDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ManualsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemsDAO.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -236,7 +539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,6 +548,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,30 +866,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.69921875" customWidth="1"/>
+    <col min="7" max="7" width="50.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -621,7 +927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -629,10 +935,18 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -641,18 +955,26 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C36" si="0">ROW()-2</f>
+        <f t="shared" ref="C4:C25" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -661,7 +983,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -669,10 +991,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -681,18 +1011,23 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -701,18 +1036,23 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -721,15 +1061,23 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -738,15 +1086,23 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -755,15 +1111,23 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -772,15 +1136,23 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -789,15 +1161,23 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -806,15 +1186,23 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -823,15 +1211,23 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -840,15 +1236,23 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="72" x14ac:dyDescent="0.45">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -857,15 +1261,21 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -874,14 +1284,20 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -891,14 +1307,20 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -908,14 +1330,20 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -925,14 +1353,20 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -942,14 +1376,20 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -959,7 +1399,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -976,7 +1416,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -993,7 +1433,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1010,7 +1450,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1027,199 +1467,12 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C32" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C35" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="C2:N25" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N14" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M36" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
-      <formula1>$A$2:$A$7</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M25" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+      <formula1>$A$2:$A$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
